--- a/AI_Intern_test_questions.xlsx
+++ b/AI_Intern_test_questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\goline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\goline\Stock_goline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABECFF3C-AC79-445D-957D-677F63AE4E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05023B8-B691-480D-A521-884A6C7F34DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,25 @@
   </si>
   <si>
     <t>expected_answer</t>
+  </si>
+  <si>
+    <t>Tính SMA9 và SMA20 của mã TCB từ đầu tháng 11 đến nay</t>
+  </si>
+  <si>
+    <t>Dưới đây là bảng tính SMA9 và SMA20 của mã TCB từ đầu tháng 11 đến nay theo khung thời gian 1 phút (một phần dữ liệu mẫu):
+Thời gian Giá đóng cửa SMA9 SMA20
+2025-11-03 09:15 35,150 35,150.00 35,150.00
+2025-11-03 09:16 35,200 35,175.00 35,175.00
+2025-11-03 09:17 35,250 35,200.00 35,200.00
+2025-11-03 09:18 35,450 35,262.50 35,262.50
+2025-11-03 09:19 35,500 35,310.00 35,310.00
+... ... ... ...
+2025-11-10 14:28 33,250 33,244.44 33,280.00
+2025-11-10 14:29 33,050 33,227.78 33,265.00
+2025-11-10 14:30 NaN 33,243.75 33,260.53
+2025-11-10 14:45 33,400 33,262.50 33,263.16
+2025-11-10 14:46 NaN 33,264.29 33,258.33
+Nếu bạn cần toàn bộ dữ liệu hoặc phân tích chi tiết hơn, tôi có thể hỗ trợ xuất file hoặc tóm tắt theo yêu cầu. Bạn muốn tiếp tục thế nào?</t>
   </si>
   <si>
     <t>Lấy dữ liệu OHLCV 10 ngày gần nhất HPG?</t>
@@ -227,25 +246,6 @@
 2025-11-11 11:28 33,550 53.71 
 2025-11-11 11:29 33,500 47.51 
 Do dữ liệu rất lớn (1141 dòng), nếu bạn cần toàn bộ bảng hoặc phân tích cụ thể, tôi có thể hỗ trợ xuất file hoặc tóm tắt theo yêu cầu. Bạn muốn tiếp tục thế nào?</t>
-  </si>
-  <si>
-    <t>Tính SMA9 và SMA20 của mã TCB từ đầu tháng 11 đến nay</t>
-  </si>
-  <si>
-    <t>Dưới đây là bảng tính SMA9 và SMA20 của mã TCB từ đầu tháng 11 đến nay theo khung thời gian 1 phút (một phần dữ liệu mẫu):
-Thời gian Giá đóng cửa SMA9 SMA20
-2025-11-03 09:15 35,150 35,150.00 35,150.00
-2025-11-03 09:16 35,200 35,175.00 35,175.00
-2025-11-03 09:17 35,250 35,200.00 35,200.00
-2025-11-03 09:18 35,450 35,262.50 35,262.50
-2025-11-03 09:19 35,500 35,310.00 35,310.00
-... ... ... ...
-2025-11-10 14:28 33,250 33,244.44 33,280.00
-2025-11-10 14:29 33,050 33,227.78 33,265.00
-2025-11-10 14:30 NaN 33,243.75 33,260.53
-2025-11-10 14:45 33,400 33,262.50 33,263.16
-2025-11-10 14:46 NaN 33,264.29 33,258.33
-Nếu bạn cần toàn bộ dữ liệu hoặc phân tích chi tiết hơn, tôi có thể hỗ trợ xuất file hoặc tóm tắt theo yêu cầu. Bạn muốn tiếp tục thế nào?</t>
   </si>
 </sst>
 </file>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,7 +601,7 @@
     <col min="2" max="2" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,108 +609,108 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="186" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="120" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="133.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="133.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="186" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="238.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="212.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="159.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="199.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
